--- a/MIS_REPORTING_CHART.xlsx
+++ b/MIS_REPORTING_CHART.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbih2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA100B-170F-4587-A743-A79E583F817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356DAFF9-7B15-4A92-91B9-FF85D7A6BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AAF37D1-F24E-49DF-B988-5A947FFCB52D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Cummulative number of mule accounts predicted by the model</t>
   </si>
@@ -236,10 +236,7 @@
     <t xml:space="preserve">Indian Overseas Bank </t>
   </si>
   <si>
-    <t>Tuesday, December 9, 2026</t>
-  </si>
-  <si>
-    <t>Friday, December 26, 2026</t>
+    <t>Friday, January 9, 2025</t>
   </si>
 </sst>
 </file>
@@ -992,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128F110-3A3D-4795-9171-AB3C47741468}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1743,7 +1740,7 @@
         <v>21.82</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1843,7 +1840,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5">
@@ -1883,7 +1880,7 @@
         <v>34.17</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6">

--- a/MIS_REPORTING_CHART.xlsx
+++ b/MIS_REPORTING_CHART.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbih2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EDD Cons Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356DAFF9-7B15-4A92-91B9-FF85D7A6BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FA9CF-C095-4485-9FFD-67097687D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AAF37D1-F24E-49DF-B988-5A947FFCB52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
   <si>
     <t>Cummulative number of mule accounts predicted by the model</t>
   </si>
@@ -237,13 +238,37 @@
   </si>
   <si>
     <t>Friday, January 9, 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SA-Version 1 </t>
+  </si>
+  <si>
+    <t>Friday, January 16, 2026</t>
+  </si>
+  <si>
+    <t>SA-Version 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-Version 1 </t>
+  </si>
+  <si>
+    <t>SA-Version 3</t>
+  </si>
+  <si>
+    <t>Sunday, January 12, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, January 17, 2026</t>
+  </si>
+  <si>
+    <t>Monday, January 19, 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +358,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +438,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -494,11 +555,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +739,102 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128F110-3A3D-4795-9171-AB3C47741468}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -2121,4 +2304,1189 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D6856-E8A0-466A-8B35-A81D802B4AC2}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="52">
+        <v>11909</v>
+      </c>
+      <c r="D2" s="52">
+        <v>7319</v>
+      </c>
+      <c r="E2" s="6">
+        <v>61.46</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="52">
+        <v>20396</v>
+      </c>
+      <c r="D3" s="52">
+        <v>11853</v>
+      </c>
+      <c r="E3" s="6">
+        <v>58.11</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2003</v>
+      </c>
+      <c r="D4" s="52">
+        <v>540</v>
+      </c>
+      <c r="E4" s="53">
+        <v>85</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="52">
+        <v>90</v>
+      </c>
+      <c r="D5" s="52">
+        <v>44</v>
+      </c>
+      <c r="E5" s="53">
+        <v>80</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="52">
+        <v>533</v>
+      </c>
+      <c r="D6" s="52">
+        <v>440</v>
+      </c>
+      <c r="E6" s="10">
+        <v>86.96</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="52">
+        <v>12544</v>
+      </c>
+      <c r="D7" s="52">
+        <v>11478</v>
+      </c>
+      <c r="E7" s="53">
+        <v>98.04</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="52">
+        <v>24266</v>
+      </c>
+      <c r="D8" s="52">
+        <v>21218</v>
+      </c>
+      <c r="E8" s="53">
+        <v>93.51</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3133</v>
+      </c>
+      <c r="D9" s="55">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="17">
+        <v>36.26</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="52">
+        <v>562</v>
+      </c>
+      <c r="D10" s="52">
+        <v>394</v>
+      </c>
+      <c r="E10" s="10">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="52">
+        <v>13784</v>
+      </c>
+      <c r="D11" s="52">
+        <v>2141</v>
+      </c>
+      <c r="E11" s="6">
+        <v>69.83</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="52">
+        <v>2473</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1075</v>
+      </c>
+      <c r="E12" s="10">
+        <v>70.77</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="52">
+        <v>11308</v>
+      </c>
+      <c r="D13" s="52">
+        <v>7792</v>
+      </c>
+      <c r="E13" s="6">
+        <v>69.05</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="52">
+        <v>1641</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1198</v>
+      </c>
+      <c r="E14" s="10">
+        <v>92</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="55">
+        <v>3657</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1347</v>
+      </c>
+      <c r="E15" s="17">
+        <v>37</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="52">
+        <v>16614</v>
+      </c>
+      <c r="D16" s="52">
+        <v>8701</v>
+      </c>
+      <c r="E16" s="6">
+        <v>52</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="52">
+        <v>3242</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1706</v>
+      </c>
+      <c r="E17" s="10">
+        <v>78</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="52">
+        <v>3367</v>
+      </c>
+      <c r="D18" s="52">
+        <v>2756</v>
+      </c>
+      <c r="E18" s="10">
+        <v>82</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="52">
+        <v>374</v>
+      </c>
+      <c r="D19" s="52">
+        <v>214</v>
+      </c>
+      <c r="E19" s="10">
+        <v>76</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2263</v>
+      </c>
+      <c r="D20" s="55">
+        <v>562</v>
+      </c>
+      <c r="E20" s="17">
+        <v>24.83</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="52">
+        <v>14997</v>
+      </c>
+      <c r="D21" s="52">
+        <v>5557</v>
+      </c>
+      <c r="E21" s="13">
+        <v>39.99</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="52">
+        <v>2032</v>
+      </c>
+      <c r="D22" s="52">
+        <v>1989</v>
+      </c>
+      <c r="E22" s="10">
+        <v>97.88</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="52">
+        <v>269</v>
+      </c>
+      <c r="D23" s="52">
+        <v>244</v>
+      </c>
+      <c r="E23" s="10">
+        <v>90.71</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="52">
+        <v>12237</v>
+      </c>
+      <c r="D24" s="52">
+        <v>6550</v>
+      </c>
+      <c r="E24" s="6">
+        <v>60</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="52">
+        <v>6750</v>
+      </c>
+      <c r="D25" s="52">
+        <v>3386</v>
+      </c>
+      <c r="E25" s="6">
+        <v>55</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="52">
+        <v>343</v>
+      </c>
+      <c r="D26" s="52">
+        <v>148</v>
+      </c>
+      <c r="E26" s="13">
+        <v>48</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="59">
+        <v>40213</v>
+      </c>
+      <c r="D27" s="59">
+        <v>30755</v>
+      </c>
+      <c r="E27" s="10">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="59">
+        <v>1017</v>
+      </c>
+      <c r="D28" s="59">
+        <v>735</v>
+      </c>
+      <c r="E28" s="10">
+        <v>76.8</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="61">
+        <v>4629</v>
+      </c>
+      <c r="D29" s="61">
+        <v>1939</v>
+      </c>
+      <c r="E29" s="13">
+        <v>41.9</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="59">
+        <v>7257</v>
+      </c>
+      <c r="D30" s="59">
+        <v>4526</v>
+      </c>
+      <c r="E30" s="6">
+        <v>65.31</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="61">
+        <v>909</v>
+      </c>
+      <c r="D31" s="61">
+        <v>204</v>
+      </c>
+      <c r="E31" s="13">
+        <v>22.47</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="59">
+        <v>1085</v>
+      </c>
+      <c r="D32" s="59">
+        <v>327</v>
+      </c>
+      <c r="E32" s="13">
+        <v>30.79</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="63">
+        <v>3348</v>
+      </c>
+      <c r="D33" s="63">
+        <v>1557</v>
+      </c>
+      <c r="E33" s="13">
+        <v>46.21</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="63">
+        <v>1111</v>
+      </c>
+      <c r="D34" s="63">
+        <v>911</v>
+      </c>
+      <c r="E34" s="10">
+        <v>82</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="63">
+        <v>1141</v>
+      </c>
+      <c r="D35" s="63">
+        <v>301</v>
+      </c>
+      <c r="E35" s="13">
+        <v>29.84</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="52">
+        <v>5853</v>
+      </c>
+      <c r="D36" s="52">
+        <v>1200</v>
+      </c>
+      <c r="E36" s="22">
+        <v>45</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="52">
+        <v>5553</v>
+      </c>
+      <c r="D37" s="52">
+        <v>1186</v>
+      </c>
+      <c r="E37" s="22">
+        <v>21.97</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="52">
+        <v>2209</v>
+      </c>
+      <c r="D38" s="52">
+        <v>569</v>
+      </c>
+      <c r="E38" s="6">
+        <v>53.03</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="64">
+        <v>9645</v>
+      </c>
+      <c r="D39" s="64">
+        <v>1741</v>
+      </c>
+      <c r="E39" s="65">
+        <v>38.92</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="52">
+        <v>1120</v>
+      </c>
+      <c r="D40" s="52">
+        <v>691</v>
+      </c>
+      <c r="E40" s="6">
+        <v>61.69</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="52">
+        <v>14452</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1119</v>
+      </c>
+      <c r="E41" s="6">
+        <v>51.05</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="52">
+        <v>280</v>
+      </c>
+      <c r="D42" s="52">
+        <v>114</v>
+      </c>
+      <c r="E42" s="13">
+        <v>40.71</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="52">
+        <v>505</v>
+      </c>
+      <c r="D43" s="52">
+        <v>287</v>
+      </c>
+      <c r="E43" s="23">
+        <v>57</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="52">
+        <v>50</v>
+      </c>
+      <c r="D44" s="52">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13">
+        <v>30</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5">
+      <c r="A45" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="52">
+        <v>5052</v>
+      </c>
+      <c r="D45" s="52">
+        <v>3705</v>
+      </c>
+      <c r="E45" s="24">
+        <v>74.48</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="52">
+        <v>1072</v>
+      </c>
+      <c r="D46" s="52">
+        <v>359</v>
+      </c>
+      <c r="E46" s="25">
+        <v>34.17</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <v>4743</v>
+      </c>
+      <c r="D47" s="59">
+        <v>3757</v>
+      </c>
+      <c r="E47" s="10">
+        <v>92.38</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="59">
+        <v>306</v>
+      </c>
+      <c r="D48" s="59">
+        <v>231</v>
+      </c>
+      <c r="E48" s="10">
+        <v>80.77</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="67">
+        <v>7793</v>
+      </c>
+      <c r="D49" s="67">
+        <v>2397</v>
+      </c>
+      <c r="E49" s="29">
+        <v>30.87</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="67">
+        <v>3900</v>
+      </c>
+      <c r="D50" s="67">
+        <v>405</v>
+      </c>
+      <c r="E50" s="29">
+        <v>10.4</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="52">
+        <v>4068</v>
+      </c>
+      <c r="D51" s="52">
+        <v>2285</v>
+      </c>
+      <c r="E51" s="30">
+        <v>62.93</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="52">
+        <v>884</v>
+      </c>
+      <c r="D52" s="52">
+        <v>490</v>
+      </c>
+      <c r="E52" s="31">
+        <v>61.09</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="52">
+        <v>3419</v>
+      </c>
+      <c r="D53" s="52">
+        <v>1512</v>
+      </c>
+      <c r="E53" s="33">
+        <v>69.42</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="52">
+        <v>309</v>
+      </c>
+      <c r="D54" s="52">
+        <v>114</v>
+      </c>
+      <c r="E54" s="33">
+        <v>61.96</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="52">
+        <v>1144</v>
+      </c>
+      <c r="D55" s="52">
+        <v>202</v>
+      </c>
+      <c r="E55" s="35">
+        <v>18.63</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="72">
+        <v>2455</v>
+      </c>
+      <c r="D57" s="72">
+        <v>2455</v>
+      </c>
+      <c r="E57" s="39">
+        <v>100</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="80">
+        <v>400</v>
+      </c>
+      <c r="D58" s="80">
+        <v>184</v>
+      </c>
+      <c r="E58" s="81">
+        <v>81.06</v>
+      </c>
+      <c r="F58" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>